--- a/Assets/__Project/Excel/ConstantTable/Stat.xlsx
+++ b/Assets/__Project/Excel/ConstantTable/Stat.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PandaIsPanda\Assets\__Project\Excel\ConstantTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD23402-6722-4A8B-B621-66524FF8AB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB2F188-DFE8-4BCC-9FC9-66799C7E2E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33825" yWindow="4185" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{09939FE0-A7ED-4CBA-88C7-947304218C76}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{09939FE0-A7ED-4CBA-88C7-947304218C76}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Hp" sheetId="2" r:id="rId2"/>
     <sheet name="Mp" sheetId="3" r:id="rId3"/>
+    <sheet name="NormalAttackSpeed" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>Id</t>
   </si>
@@ -100,6 +101,14 @@
   </si>
   <si>
     <t>수치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평타 공격 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon/statnormalattackspeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,18 +496,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DA29BE-F030-4819-9424-7ECA0CB6F2F8}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
@@ -581,6 +591,26 @@
       </c>
       <c r="F4" s="1">
         <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -593,7 +623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0030EFD-50FA-43F5-A56D-C08DA51EBD79}">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -1454,4 +1484,436 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17CE2BED-80E2-41EB-923E-BB6A156B4E08}">
+  <dimension ref="A1:B52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1.49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/__Project/Excel/ConstantTable/Stat.xlsx
+++ b/Assets/__Project/Excel/ConstantTable/Stat.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PandaIsPanda\Assets\__Project\Excel\ConstantTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB2F188-DFE8-4BCC-9FC9-66799C7E2E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5471E30D-40FC-4042-B7F5-360B9B973C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{09939FE0-A7ED-4CBA-88C7-947304218C76}"/>
+    <workbookView xWindow="7845" yWindow="2595" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{09939FE0-A7ED-4CBA-88C7-947304218C76}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Hp" sheetId="2" r:id="rId2"/>
     <sheet name="Mp" sheetId="3" r:id="rId3"/>
     <sheet name="NormalAttackSpeed" sheetId="4" r:id="rId4"/>
+    <sheet name="NormalAttack" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>Id</t>
   </si>
@@ -53,18 +54,6 @@
   </si>
   <si>
     <t>nameId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iconPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon/stathp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon/statmp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -108,7 +97,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>icon/statnormalattackspeed</t>
+    <t>평타 공격력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DA29BE-F030-4819-9424-7ECA0CB6F2F8}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -507,110 +496,111 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="14.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
+      <c r="D3" s="1">
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
+      <c r="D4" s="1">
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
+      <c r="D5" s="1">
+        <v>0</v>
       </c>
       <c r="E5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="1">
-        <v>3</v>
+      <c r="E6" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -634,18 +624,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1066,18 +1056,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1498,18 +1488,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1910,6 +1900,438 @@
       </c>
       <c r="B52" s="1">
         <v>1.49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D80A461-5836-4F9A-B41F-AC564BA1A6BF}">
+  <dimension ref="A1:B52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
